--- a/CH-064 Text Cleaning.xlsx
+++ b/CH-064 Text Cleaning.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DF264E-01F2-448F-B87B-A7A9127D3CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417CDB1C-1A1E-48FE-8A90-63C28FBA2965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="EDA" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EDA!$B$2:$B$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$B$2:$B$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,8 +40,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="19">
   <si>
     <t>Question</t>
   </si>
@@ -94,12 +118,15 @@
   <si>
     <t>2024/05/07, AB 3, AS 4</t>
   </si>
+  <si>
+    <t>Play</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +154,13 @@
       <family val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Mono"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -148,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -210,11 +244,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -251,8 +295,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -909,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.5"/>
@@ -1174,4 +1220,772 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7BDC8E-95DE-4694-9D91-57DC03B4D0BA}">
+  <dimension ref="A1:V30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5546875" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3" s="8">
+        <v>45386</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="9">
+        <v>10</v>
+      </c>
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4" s="8">
+        <v>45386</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="11">
+        <v>5</v>
+      </c>
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5" s="8">
+        <v>45395</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6" s="8">
+        <v>45395</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7" s="8">
+        <v>45395</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="9">
+        <v>2</v>
+      </c>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8" s="8">
+        <v>45397</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9" s="8">
+        <v>45404</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="9">
+        <v>3</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10" s="8">
+        <v>45412</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="3"/>
+      <c r="C11"/>
+      <c r="D11" s="8">
+        <v>45412</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="3"/>
+      <c r="C12"/>
+      <c r="D12" s="8">
+        <v>45416</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="9">
+        <v>2</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D13" s="8">
+        <v>45419</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D14" s="8">
+        <v>45419</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A18" s="1"/>
+      <c r="B18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="str" cm="1">
+        <f t="array" ref="C18:C19">_xlfn.LET(
+_xlpm.z,_xlfn.HSTACK(TEXT(_xlfn.TEXTBEFORE(B18,",",,,,"")+0,"m/d/yyyy"),_xlfn.TEXTSPLIT(_xlfn.TEXTAFTER(B18,",",,,,"")," ",",",TRUE)),
+_xlpm.f,_xlfn.CHOOSECOLS(_xlpm.z,1),
+_xlpm.f_, IF(ISNA(_xlpm.f),INDEX(_xlpm.f,1),_xlpm.f),
+_xlpm.f_
+)</f>
+        <v>4/4/2024</v>
+      </c>
+      <c r="G18" s="7" t="str" cm="1">
+        <f t="array" ref="G18:I29">_xlfn.LET(_xlpm.z,_xlfn.DROP(_xlfn.REDUCE("",B3:B9,
+_xlfn.LAMBDA(_xlpm.a,_xlpm.v,
+_xlfn.VSTACK(_xlpm.a,_xlfn.HSTACK(TEXT(_xlfn.TEXTBEFORE(_xlpm.v,",",,,,"")+0,"m/d/yyyy"),_xlfn.TEXTSPLIT(_xlfn.TEXTAFTER(_xlpm.v,",",,,,"")," ",",",TRUE))))),1),
+_xlpm.g, _xlfn.CHOOSECOLS(_xlpm.z,3),
+_xlpm.g_,IF(ISNA(_xlpm.g),1,_xlpm.g),
+_xlpm.f,_xlfn.CHOOSECOLS(_xlpm.z,1),
+_xlpm.f_,IF(ISNA(_xlpm.f),INDEX(_xlpm.f,1),_xlpm.f),
+_xlpm.zz,_xlfn.HSTACK(_xlpm.f_,_xlfn.CHOOSECOLS(_xlpm.z,2),_xlpm.g_+0),
+_xlpm.qq,_xlfn.VSTACK({"Date","Product","Quantity"},_xlpm.zz),
+_xlpm.z
+)</f>
+        <v>4/4/2024</v>
+      </c>
+      <c r="H18" s="7" t="str">
+        <v>A</v>
+      </c>
+      <c r="I18" s="7" t="str">
+        <v>10</v>
+      </c>
+      <c r="P18" s="7" t="str" cm="1">
+        <f t="array" ref="P18:R30">_xlfn.LET(_xlpm.z,_xlfn.DROP(_xlfn.REDUCE("",B3:B9,
+_xlfn.LAMBDA(_xlpm.a,_xlpm.v,
+_xlfn.VSTACK(_xlpm.a,_xlfn.HSTACK(_xlfn.TEXTBEFORE(_xlpm.v,",",,,,"")+0,_xlfn.TEXTSPLIT(_xlfn.TEXTAFTER(_xlpm.v,",",,,,"")," ",",",TRUE))))),1),
+_xlpm.g, _xlfn.CHOOSECOLS(_xlpm.z,3),
+_xlpm.g_,IF(ISNA(_xlpm.g),1,_xlpm.g),
+_xlpm.f,_xlfn.CHOOSECOLS(_xlpm.z,1),
+_xlpm.f_,IF(ISNA(_xlpm.f),INDEX(_xlpm.f,1),_xlpm.f),
+_xlpm.zz,_xlfn.HSTACK(_xlpm.f_,_xlfn.CHOOSECOLS(_xlpm.z,2),_xlpm.g_+0),
+_xlpm.zz_,_xlfn._xlws.SORT(_xlpm.zz,1),
+_xlfn.VSTACK({"Date","Product","Quantity"},_xlpm.zz_)
+)</f>
+        <v>Date</v>
+      </c>
+      <c r="Q18" s="7" t="str">
+        <v>Product</v>
+      </c>
+      <c r="R18" s="7" t="str">
+        <v>Quantity</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A19" s="1"/>
+      <c r="C19" t="str">
+        <v>4/4/2024</v>
+      </c>
+      <c r="G19" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H19" s="8" t="str">
+        <v>B</v>
+      </c>
+      <c r="I19" s="9" t="str">
+        <v>5</v>
+      </c>
+      <c r="K19" t="e" cm="1">
+        <f t="array" ref="K19:M30">G19:I30=D3:F14</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+      <c r="P19" s="8">
+        <v>45386</v>
+      </c>
+      <c r="Q19" s="8" t="str">
+        <v>A</v>
+      </c>
+      <c r="R19" s="9">
+        <v>10</v>
+      </c>
+      <c r="T19" t="b" cm="1">
+        <f t="array" ref="T19:V30">P19:R30=D3:F14</f>
+        <v>1</v>
+      </c>
+      <c r="U19" t="b">
+        <v>1</v>
+      </c>
+      <c r="V19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A20" s="1"/>
+      <c r="G20" s="8" t="str">
+        <v>4/13/2024</v>
+      </c>
+      <c r="H20" s="11" t="str">
+        <v>AS</v>
+      </c>
+      <c r="I20" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P20" s="8">
+        <v>45386</v>
+      </c>
+      <c r="Q20" s="11" t="str">
+        <v>B</v>
+      </c>
+      <c r="R20" s="11">
+        <v>5</v>
+      </c>
+      <c r="T20" t="b">
+        <v>1</v>
+      </c>
+      <c r="U20" t="b">
+        <v>1</v>
+      </c>
+      <c r="V20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A21" s="1"/>
+      <c r="G21" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H21" s="8" t="str">
+        <v>A</v>
+      </c>
+      <c r="I21" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P21" s="8">
+        <v>45386</v>
+      </c>
+      <c r="Q21" s="8" t="str">
+        <v>A</v>
+      </c>
+      <c r="R21" s="9">
+        <v>1</v>
+      </c>
+      <c r="T21" t="b">
+        <v>0</v>
+      </c>
+      <c r="U21" t="b">
+        <v>0</v>
+      </c>
+      <c r="V21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A22" s="1"/>
+      <c r="G22" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H22" s="8" t="str">
+        <v>M</v>
+      </c>
+      <c r="I22" s="9" t="str">
+        <v>2</v>
+      </c>
+      <c r="K22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+      <c r="P22" s="8">
+        <v>45386</v>
+      </c>
+      <c r="Q22" s="8" t="str">
+        <v>M</v>
+      </c>
+      <c r="R22" s="9">
+        <v>2</v>
+      </c>
+      <c r="T22" t="b">
+        <v>0</v>
+      </c>
+      <c r="U22" t="b">
+        <v>0</v>
+      </c>
+      <c r="V22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="G23" s="8" t="str">
+        <v>4/15/2024</v>
+      </c>
+      <c r="H23" s="8" t="str">
+        <v>A</v>
+      </c>
+      <c r="I23" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P23" s="8">
+        <v>45386</v>
+      </c>
+      <c r="Q23" s="8" t="str">
+        <v>B</v>
+      </c>
+      <c r="R23" s="9">
+        <v>1</v>
+      </c>
+      <c r="T23" t="b">
+        <v>0</v>
+      </c>
+      <c r="U23" t="b">
+        <v>0</v>
+      </c>
+      <c r="V23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="G24" s="8" t="str">
+        <v>4/22/2024</v>
+      </c>
+      <c r="H24" s="9" t="str">
+        <v>B</v>
+      </c>
+      <c r="I24" s="10" t="str">
+        <v>3</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+      <c r="P24" s="8">
+        <v>45386</v>
+      </c>
+      <c r="Q24" s="9" t="str">
+        <v>AS</v>
+      </c>
+      <c r="R24" s="10">
+        <v>4</v>
+      </c>
+      <c r="T24" t="b">
+        <v>0</v>
+      </c>
+      <c r="U24" t="b">
+        <v>0</v>
+      </c>
+      <c r="V24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="G25" s="8" t="str">
+        <v>4/30/2024</v>
+      </c>
+      <c r="H25" s="8" t="str">
+        <v>A</v>
+      </c>
+      <c r="I25" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P25" s="8">
+        <v>45395</v>
+      </c>
+      <c r="Q25" s="8" t="str">
+        <v>AS</v>
+      </c>
+      <c r="R25" s="9">
+        <v>1</v>
+      </c>
+      <c r="T25" t="b">
+        <v>0</v>
+      </c>
+      <c r="U25" t="b">
+        <v>0</v>
+      </c>
+      <c r="V25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="G26" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H26" s="8" t="str">
+        <v>B</v>
+      </c>
+      <c r="I26" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P26" s="8">
+        <v>45397</v>
+      </c>
+      <c r="Q26" s="8" t="str">
+        <v>A</v>
+      </c>
+      <c r="R26" s="9">
+        <v>1</v>
+      </c>
+      <c r="T26" t="b">
+        <v>0</v>
+      </c>
+      <c r="U26" t="b">
+        <v>1</v>
+      </c>
+      <c r="V26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="G27" s="8" t="str">
+        <v>5/4/2024</v>
+      </c>
+      <c r="H27" s="11" t="str">
+        <v>AB</v>
+      </c>
+      <c r="I27" s="11" t="str">
+        <v>2</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="b">
+        <v>0</v>
+      </c>
+      <c r="P27" s="8">
+        <v>45404</v>
+      </c>
+      <c r="Q27" s="11" t="str">
+        <v>B</v>
+      </c>
+      <c r="R27" s="11">
+        <v>3</v>
+      </c>
+      <c r="T27" t="b">
+        <v>0</v>
+      </c>
+      <c r="U27" t="b">
+        <v>1</v>
+      </c>
+      <c r="V27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="G28" s="8" t="str">
+        <v>5/7/2024</v>
+      </c>
+      <c r="H28" s="8" t="str">
+        <v>AB</v>
+      </c>
+      <c r="I28" s="9" t="str">
+        <v>3</v>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28" t="b">
+        <v>0</v>
+      </c>
+      <c r="P28" s="8">
+        <v>45412</v>
+      </c>
+      <c r="Q28" s="8" t="str">
+        <v>A</v>
+      </c>
+      <c r="R28" s="9">
+        <v>1</v>
+      </c>
+      <c r="T28" t="b">
+        <v>0</v>
+      </c>
+      <c r="U28" t="b">
+        <v>0</v>
+      </c>
+      <c r="V28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="G29" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H29" s="8" t="str">
+        <v>AS</v>
+      </c>
+      <c r="I29" s="9" t="str">
+        <v>4</v>
+      </c>
+      <c r="K29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="b">
+        <v>0</v>
+      </c>
+      <c r="P29" s="8">
+        <v>45416</v>
+      </c>
+      <c r="Q29" s="8" t="str">
+        <v>AB</v>
+      </c>
+      <c r="R29" s="9">
+        <v>2</v>
+      </c>
+      <c r="T29" t="b">
+        <v>0</v>
+      </c>
+      <c r="U29" t="b">
+        <v>1</v>
+      </c>
+      <c r="V29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="9"/>
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="b">
+        <v>0</v>
+      </c>
+      <c r="P30" s="8">
+        <v>45419</v>
+      </c>
+      <c r="Q30" s="8" t="str">
+        <v>AB</v>
+      </c>
+      <c r="R30" s="9">
+        <v>3</v>
+      </c>
+      <c r="T30" t="b">
+        <v>1</v>
+      </c>
+      <c r="U30" t="b">
+        <v>0</v>
+      </c>
+      <c r="V30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CH-064 Text Cleaning.xlsx
+++ b/CH-064 Text Cleaning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417CDB1C-1A1E-48FE-8A90-63C28FBA2965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7651D4CF-D59D-427A-BE8E-216B84FC86BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="19">
   <si>
     <t>Question</t>
   </si>
@@ -292,10 +292,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -951,6 +951,33 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="756" row="8">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{7972873D-1CF9-468C-9E8A-B8E5CB776286}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I22"/>
@@ -975,11 +1002,11 @@
         <v>0</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="D1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.5">
@@ -1226,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7BDC8E-95DE-4694-9D91-57DC03B4D0BA}">
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="C18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.5"/>
@@ -1239,7 +1266,8 @@
     <col min="5" max="5" width="8.44140625" customWidth="1"/>
     <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.5546875" customWidth="1"/>
-    <col min="16" max="16" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1247,11 +1275,11 @@
         <v>0</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="D1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.5">
@@ -1460,7 +1488,7 @@
       <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1480,6 +1508,12 @@
 _xlpm.f_
 )</f>
         <v>4/4/2024</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
       </c>
       <c r="G18" s="7" t="str" cm="1">
         <f t="array" ref="G18:I29">_xlfn.LET(_xlpm.z,_xlfn.DROP(_xlfn.REDUCE("",B3:B9,
@@ -1503,15 +1537,14 @@
       </c>
       <c r="P18" s="7" t="str" cm="1">
         <f t="array" ref="P18:R30">_xlfn.LET(_xlpm.z,_xlfn.DROP(_xlfn.REDUCE("",B3:B9,
-_xlfn.LAMBDA(_xlpm.a,_xlpm.v,
-_xlfn.VSTACK(_xlpm.a,_xlfn.HSTACK(_xlfn.TEXTBEFORE(_xlpm.v,",",,,,"")+0,_xlfn.TEXTSPLIT(_xlfn.TEXTAFTER(_xlpm.v,",",,,,"")," ",",",TRUE))))),1),
-_xlpm.g, _xlfn.CHOOSECOLS(_xlpm.z,3),
-_xlpm.g_,IF(ISNA(_xlpm.g),1,_xlpm.g),
-_xlpm.f,_xlfn.CHOOSECOLS(_xlpm.z,1),
-_xlpm.f_,IF(ISNA(_xlpm.f),INDEX(_xlpm.f,1),_xlpm.f),
-_xlpm.zz,_xlfn.HSTACK(_xlpm.f_,_xlfn.CHOOSECOLS(_xlpm.z,2),_xlpm.g_+0),
-_xlpm.zz_,_xlfn._xlws.SORT(_xlpm.zz,1),
-_xlfn.VSTACK({"Date","Product","Quantity"},_xlpm.zz_)
+                   _xlfn.LAMBDA(_xlpm.a,_xlpm.v,
+                          _xlfn.VSTACK(_xlpm.a,_xlfn.HSTACK(_xlfn.TEXTBEFORE(_xlpm.v,",",,,,"")+0,_xlfn.TEXTSPLIT(_xlfn.TEXTAFTER(_xlpm.v,",",,,,"")," ",",",TRUE))))),1),
+                   _xlpm.g, _xlfn.CHOOSECOLS(_xlpm.z,3),
+                   _xlpm.g_,IF(ISNA(_xlpm.g),1,_xlpm.g),
+                   _xlpm.f,_xlfn.CHOOSECOLS(_xlpm.z,1),
+                   _xlpm.f_,_xlfn.SCAN("",_xlpm.f,_xlfn.LAMBDA(_xlpm.a,_xlpm.v,IF(ISNA(_xlpm.v),_xlfn.TAKE(_xlpm.a,-1),_xlpm.v))),
+                   _xlpm.zz,_xlfn.HSTACK(_xlpm.f_,_xlfn.CHOOSECOLS(_xlpm.z,2),_xlpm.g_+0),
+                   _xlfn.VSTACK({"Date","Product","Quantity"},_xlpm.zz)
 )</f>
         <v>Date</v>
       </c>
@@ -1527,6 +1560,12 @@
       <c r="C19" t="str">
         <v>4/4/2024</v>
       </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
       <c r="G19" s="8" t="e">
         <v>#N/A</v>
       </c>
@@ -1546,6 +1585,7 @@
       <c r="M19" t="b">
         <v>0</v>
       </c>
+      <c r="O19" s="1"/>
       <c r="P19" s="8">
         <v>45386</v>
       </c>
@@ -1568,6 +1608,12 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A20" s="1"/>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
       <c r="G20" s="8" t="str">
         <v>4/13/2024</v>
       </c>
@@ -1586,6 +1632,7 @@
       <c r="M20" t="e">
         <v>#N/A</v>
       </c>
+      <c r="O20" s="1"/>
       <c r="P20" s="8">
         <v>45386</v>
       </c>
@@ -1607,6 +1654,12 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
       <c r="G21" s="8" t="e">
         <v>#N/A</v>
       </c>
@@ -1625,20 +1678,21 @@
       <c r="M21" t="e">
         <v>#N/A</v>
       </c>
+      <c r="O21" s="1"/>
       <c r="P21" s="8">
-        <v>45386</v>
+        <v>45395</v>
       </c>
       <c r="Q21" s="8" t="str">
-        <v>A</v>
+        <v>AS</v>
       </c>
       <c r="R21" s="9">
         <v>1</v>
       </c>
       <c r="T21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" t="b">
         <v>1</v>
@@ -1646,6 +1700,12 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A22" s="1"/>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
       <c r="G22" s="8" t="e">
         <v>#N/A</v>
       </c>
@@ -1664,26 +1724,33 @@
       <c r="M22" t="b">
         <v>0</v>
       </c>
+      <c r="O22" s="1"/>
       <c r="P22" s="8">
-        <v>45386</v>
+        <v>45395</v>
       </c>
       <c r="Q22" s="8" t="str">
-        <v>M</v>
+        <v>A</v>
       </c>
       <c r="R22" s="9">
+        <v>1</v>
+      </c>
+      <c r="T22" t="b">
+        <v>1</v>
+      </c>
+      <c r="U22" t="b">
+        <v>1</v>
+      </c>
+      <c r="V22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="E23" t="s">
         <v>2</v>
       </c>
-      <c r="T22" t="b">
-        <v>0</v>
-      </c>
-      <c r="U22" t="b">
-        <v>0</v>
-      </c>
-      <c r="V22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="F23">
+        <v>1</v>
+      </c>
       <c r="G23" s="8" t="str">
         <v>4/15/2024</v>
       </c>
@@ -1702,26 +1769,33 @@
       <c r="M23" t="e">
         <v>#N/A</v>
       </c>
+      <c r="O23" s="1"/>
       <c r="P23" s="8">
-        <v>45386</v>
+        <v>45395</v>
       </c>
       <c r="Q23" s="8" t="str">
-        <v>B</v>
+        <v>M</v>
       </c>
       <c r="R23" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="E24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
       <c r="G24" s="8" t="str">
         <v>4/22/2024</v>
       </c>
@@ -1740,26 +1814,33 @@
       <c r="M24" t="b">
         <v>0</v>
       </c>
+      <c r="O24" s="1"/>
       <c r="P24" s="8">
-        <v>45386</v>
+        <v>45397</v>
       </c>
       <c r="Q24" s="9" t="str">
-        <v>AS</v>
+        <v>A</v>
       </c>
       <c r="R24" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
       <c r="G25" s="8" t="str">
         <v>4/30/2024</v>
       </c>
@@ -1778,26 +1859,33 @@
       <c r="M25" t="e">
         <v>#N/A</v>
       </c>
+      <c r="O25" s="1"/>
       <c r="P25" s="8">
-        <v>45395</v>
+        <v>45404</v>
       </c>
       <c r="Q25" s="8" t="str">
-        <v>AS</v>
+        <v>B</v>
       </c>
       <c r="R25" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="E26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
       <c r="G26" s="8" t="e">
         <v>#N/A</v>
       </c>
@@ -1816,8 +1904,9 @@
       <c r="M26" t="e">
         <v>#N/A</v>
       </c>
+      <c r="O26" s="1"/>
       <c r="P26" s="8">
-        <v>45397</v>
+        <v>45412</v>
       </c>
       <c r="Q26" s="8" t="str">
         <v>A</v>
@@ -1826,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="T26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26" t="b">
         <v>1</v>
@@ -1836,6 +1925,12 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
       <c r="G27" s="8" t="str">
         <v>5/4/2024</v>
       </c>
@@ -1854,26 +1949,33 @@
       <c r="M27" t="b">
         <v>0</v>
       </c>
+      <c r="O27" s="1"/>
       <c r="P27" s="8">
-        <v>45404</v>
+        <v>45412</v>
       </c>
       <c r="Q27" s="11" t="str">
         <v>B</v>
       </c>
       <c r="R27" s="11">
+        <v>1</v>
+      </c>
+      <c r="T27" t="b">
+        <v>1</v>
+      </c>
+      <c r="U27" t="b">
+        <v>1</v>
+      </c>
+      <c r="V27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28">
         <v>3</v>
       </c>
-      <c r="T27" t="b">
-        <v>0</v>
-      </c>
-      <c r="U27" t="b">
-        <v>1</v>
-      </c>
-      <c r="V27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.5">
       <c r="G28" s="8" t="str">
         <v>5/7/2024</v>
       </c>
@@ -1892,26 +1994,33 @@
       <c r="M28" t="b">
         <v>0</v>
       </c>
+      <c r="O28" s="1"/>
       <c r="P28" s="8">
-        <v>45412</v>
+        <v>45416</v>
       </c>
       <c r="Q28" s="8" t="str">
-        <v>A</v>
+        <v>AB</v>
       </c>
       <c r="R28" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
       <c r="G29" s="8" t="e">
         <v>#N/A</v>
       </c>
@@ -1930,23 +2039,24 @@
       <c r="M29" t="b">
         <v>0</v>
       </c>
+      <c r="O29" s="1"/>
       <c r="P29" s="8">
-        <v>45416</v>
+        <v>45419</v>
       </c>
       <c r="Q29" s="8" t="str">
         <v>AB</v>
       </c>
       <c r="R29" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" t="b">
         <v>1</v>
       </c>
       <c r="V29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.5">
@@ -1962,23 +2072,24 @@
       <c r="M30" t="b">
         <v>0</v>
       </c>
+      <c r="O30" s="1"/>
       <c r="P30" s="8">
         <v>45419</v>
       </c>
       <c r="Q30" s="8" t="str">
-        <v>AB</v>
+        <v>AS</v>
       </c>
       <c r="R30" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T30" t="b">
         <v>1</v>
       </c>
       <c r="U30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/CH-064 Text Cleaning.xlsx
+++ b/CH-064 Text Cleaning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7651D4CF-D59D-427A-BE8E-216B84FC86BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F1C656-4D99-4B49-A533-442A721B3C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -969,6 +969,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
@@ -1254,7 +1257,7 @@
   <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.5"/>
